--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Ptch1.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.378315666666666</v>
+        <v>7.695620666666667</v>
       </c>
       <c r="N2">
-        <v>13.134947</v>
+        <v>23.086862</v>
       </c>
       <c r="O2">
-        <v>0.3595558013009157</v>
+        <v>0.4976976897997125</v>
       </c>
       <c r="P2">
-        <v>0.3595558013009156</v>
+        <v>0.4976976897997126</v>
       </c>
       <c r="Q2">
-        <v>0.2977984372611111</v>
+        <v>0.5234304656777778</v>
       </c>
       <c r="R2">
-        <v>2.68018593535</v>
+        <v>4.7108741911</v>
       </c>
       <c r="S2">
-        <v>0.3595558013009157</v>
+        <v>0.4976976897997125</v>
       </c>
       <c r="T2">
-        <v>0.3595558013009156</v>
+        <v>0.4976976897997126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>10.62227</v>
       </c>
       <c r="O3">
-        <v>0.2907738266081072</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="P3">
-        <v>0.2907738266081071</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="Q3">
         <v>0.2408304659444445</v>
@@ -635,10 +635,10 @@
         <v>2.1674741935</v>
       </c>
       <c r="S3">
-        <v>0.2907738266081072</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="T3">
-        <v>0.2907738266081071</v>
+        <v>0.228990810419744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.478768666666667</v>
+        <v>3.610968333333334</v>
       </c>
       <c r="N4">
-        <v>10.436306</v>
+        <v>10.832905</v>
       </c>
       <c r="O4">
-        <v>0.2856832514399605</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="P4">
-        <v>0.2856832514399604</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="Q4">
-        <v>0.2366142488111111</v>
+        <v>0.2456060294722222</v>
       </c>
       <c r="R4">
-        <v>2.1295282393</v>
+        <v>2.21045426525</v>
       </c>
       <c r="S4">
-        <v>0.2856832514399605</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="T4">
-        <v>0.2856832514399604</v>
+        <v>0.2335315987213747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.779172</v>
+        <v>0.6150943333333334</v>
       </c>
       <c r="N5">
-        <v>2.337516</v>
+        <v>1.845283</v>
       </c>
       <c r="O5">
-        <v>0.0639871206510168</v>
+        <v>0.03977990105916876</v>
       </c>
       <c r="P5">
-        <v>0.06398712065101679</v>
+        <v>0.03977990105916877</v>
       </c>
       <c r="Q5">
-        <v>0.0529966822</v>
+        <v>0.0418366662388889</v>
       </c>
       <c r="R5">
-        <v>0.4769701398</v>
+        <v>0.37652999615</v>
       </c>
       <c r="S5">
-        <v>0.0639871206510168</v>
+        <v>0.03977990105916876</v>
       </c>
       <c r="T5">
-        <v>0.06398712065101679</v>
+        <v>0.03977990105916877</v>
       </c>
     </row>
   </sheetData>
